--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BE72059D-E2F5-4338-B15D-4651F21AB0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\budchane\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81161AEF-5F59-4DCB-8858-1B304A803A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{23019ABB-612A-419C-8264-93FB76FED98A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FC947E8-CD84-4325-9107-81AEF1AC1484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:G20"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,67 +36,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
-  <si>
-    <t>ExpectedFont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ExpectedText</t>
-  </si>
-  <si>
-    <t>Aptos</t>
-  </si>
-  <si>
-    <t>mob_no</t>
-  </si>
-  <si>
-    <t>fromCity</t>
-  </si>
-  <si>
-    <t>toCity</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>ExpectedColor</t>
-  </si>
-  <si>
-    <t>Welcome to Ixigo</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>Passenger Details</t>
-  </si>
-  <si>
-    <t>[1.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>GeneratedID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Smith</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -108,14 +79,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="7"/>
       <color rgb="FF0A0A0A"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <i/>
+      <sz val="7"/>
       <color rgb="FF0A0A0A"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -135,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,29 +129,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,132 +486,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE396359-4649-456F-8A57-5B343F547882}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262E920C-E49C-4CA4-AE02-BF65501F53D6}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.08984375" customWidth="1"/>
-    <col min="2" max="2" width="28.08984375" customWidth="1"/>
-    <col min="3" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>9359751866</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458F0D8-730F-4A18-8667-F97404183F33}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>9359751866</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
